--- a/artfynd/Gåstjärnen artfynd.xlsx
+++ b/artfynd/Gåstjärnen artfynd.xlsx
@@ -1185,10 +1185,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112187756</v>
+        <v>112187753</v>
       </c>
       <c r="B7" t="n">
-        <v>92529</v>
+        <v>78647</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,21 +1196,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>680361</v>
+        <v>680343</v>
       </c>
       <c r="R7" t="n">
-        <v>7102367</v>
+        <v>7102115</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112187753</v>
+        <v>112187756</v>
       </c>
       <c r="B8" t="n">
-        <v>78647</v>
+        <v>92529</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,21 +1297,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>680343</v>
+        <v>680361</v>
       </c>
       <c r="R8" t="n">
-        <v>7102115</v>
+        <v>7102367</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112187757</v>
+        <v>112187755</v>
       </c>
       <c r="B19" t="n">
-        <v>92571</v>
+        <v>96614</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2418,21 +2418,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>53</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2442,10 +2442,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>680272</v>
+        <v>680359</v>
       </c>
       <c r="R19" t="n">
-        <v>7102246</v>
+        <v>7102296</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112436025</v>
+        <v>112187757</v>
       </c>
       <c r="B20" t="n">
-        <v>92551</v>
+        <v>92571</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2519,21 +2519,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>680102</v>
+        <v>680272</v>
       </c>
       <c r="R20" t="n">
-        <v>7102515</v>
+        <v>7102246</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112187755</v>
+        <v>112436025</v>
       </c>
       <c r="B21" t="n">
-        <v>96614</v>
+        <v>92551</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2620,21 +2620,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>680359</v>
+        <v>680102</v>
       </c>
       <c r="R21" t="n">
-        <v>7102296</v>
+        <v>7102515</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/Gåstjärnen artfynd.xlsx
+++ b/artfynd/Gåstjärnen artfynd.xlsx
@@ -2407,10 +2407,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112187755</v>
+        <v>112187757</v>
       </c>
       <c r="B19" t="n">
-        <v>96614</v>
+        <v>92571</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2418,21 +2418,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2442,10 +2442,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>680359</v>
+        <v>680272</v>
       </c>
       <c r="R19" t="n">
-        <v>7102296</v>
+        <v>7102246</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112187757</v>
+        <v>112436025</v>
       </c>
       <c r="B20" t="n">
-        <v>92571</v>
+        <v>92551</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2519,21 +2519,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>680272</v>
+        <v>680102</v>
       </c>
       <c r="R20" t="n">
-        <v>7102246</v>
+        <v>7102515</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112436025</v>
+        <v>112187755</v>
       </c>
       <c r="B21" t="n">
-        <v>92551</v>
+        <v>96614</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2620,21 +2620,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>680102</v>
+        <v>680359</v>
       </c>
       <c r="R21" t="n">
-        <v>7102515</v>
+        <v>7102296</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
